--- a/Supplemental tables 1 2 3 Arandjelovic et al Chimp&See.xlsx
+++ b/Supplemental tables 1 2 3 Arandjelovic et al Chimp&See.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\evafs.eva.mpg.de\primatology\primpanaf\22_Publications\15_ChimpandSee_speciesID\Remote Sensing in Ecology and Conservation\04_for resubmission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\evafs.eva.mpg.de\primatology\primpanaf\22_Publications\15_ChimpandSee_speciesID\Remote Sensing in Ecology and Conservation\06_final version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409870F7-065E-4779-A2DE-BFC58E335FF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AA0AD1-4BB8-43EA-8515-DDF2DA7AF566}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10125" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Read me" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="197">
   <si>
     <t>PE annotation original</t>
   </si>
@@ -219,9 +219,6 @@
     <t>https://talk.chimpandsee.org/subjects/ACP000e3xs</t>
   </si>
   <si>
-    <t>Example clip of a CS annotated video that found consensus on an animal (red river hog, proportion consensus = .5) that correctly matched the PE annotation and that was hashtagged with the correct tag (#red_river_hog)</t>
-  </si>
-  <si>
     <t>red river hog</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
   </si>
   <si>
     <t>https://talk.chimpandsee.org/subjects/ACP000exq1</t>
-  </si>
-  <si>
-    <t>Example clip of a CS annotated video that found consensus on an animal (other (non-primate), proportion consensus = .5) that correctly matched the PE annotation and that was hashtagged with the correct tag (#genet)</t>
   </si>
   <si>
     <t>example</t>
@@ -382,9 +376,6 @@
     <t>j</t>
   </si>
   <si>
-    <t>Example clip of a CS annotated video that found consensus on an animal (rodent, proportion consensus = .50) that did not match the PE annotation but that was hashtagged with the correct tag (#brush-tailed_porcupine)</t>
-  </si>
-  <si>
     <t>rodent (N=6)
 porcupine (N=4)
 other (non-primate) (N=2)</t>
@@ -410,9 +401,6 @@
     <t>m</t>
   </si>
   <si>
-    <t>Example clip of a CS annotated video that found consensus on an animal (red duiker, proportion consensus = .5) that correctly matched the PE annotation. The video was taggedcorrectly but only to the genus level (#duiker)</t>
-  </si>
-  <si>
     <t>#duiker</t>
   </si>
   <si>
@@ -432,9 +420,6 @@
   </si>
   <si>
     <t>o</t>
-  </si>
-  <si>
-    <t>Example clip of a CS annotated video that found consensus on an animal (giant forest hog, proportion consensus = .5) that correctly matched the PE annotation and that was hashtagged with the correct tag (#igant_forest_hog)</t>
   </si>
   <si>
     <t>giant forest hog (N=7)
@@ -758,12 +743,44 @@
       <t xml:space="preserve"> is defined as the number of annotations for a given category divided by the total non-blank video clip annotations.</t>
     </r>
   </si>
+  <si>
+    <t>ACP000ewzn</t>
+  </si>
+  <si>
+    <t>http://www.chimpandsee.org/subjects/570cfd873fc33c0001be2fd0/570cfd873fc33c0001be2fd0.mp4</t>
+  </si>
+  <si>
+    <t>Example clip of a CS annotated video that found consensus on an animal (rodent, proportion consensus = 0.5) that did not match the PE annotation but that was hashtagged with the correct tag (#brush-tailed_porcupine)</t>
+  </si>
+  <si>
+    <t>Example clip of a CS annotated video that found consensus on an animal (red river hog, proportion consensus = 0.5) that correctly matched the PE annotation and that was hashtagged with the correct tag (#red_river_hog)</t>
+  </si>
+  <si>
+    <t>Example clip of a CS annotated video that found consensus on an animal (red duiker, proportion consensus =0 .5) that correctly matched the PE annotation. The video was taggedcorrectly but only to the genus level (#duiker)</t>
+  </si>
+  <si>
+    <t>Example clip of a CS annotated video that found consensus on an animal (other (non-primate), proportion consensus =0 .5) that correctly matched the PE annotation and that was hashtagged with the correct tag (#genet)</t>
+  </si>
+  <si>
+    <t>Example clip of a CS annotated video that found consensus on an animal (giant forest hog, proportion consensus = 0.5) that correctly matched the PE annotation and that was hashtagged with the correct tag (#igant_forest_hog)</t>
+  </si>
+  <si>
+    <t>Example clip of a CS annotated video that found consensus on an animal (other (non-primate), proportion consensus = 0.5) that did not match the PE annotation (porcupine) and that was not hashtagged</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>other (non-primate) (N=4)
+small grey duiker (N=1)
+rodent (N=1)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -847,6 +864,13 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -959,7 +983,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1042,13 +1066,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1084,15 +1102,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1315,23 +1352,23 @@
   </sheetPr>
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="46"/>
+    <col min="1" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>124</v>
+      <c r="A1" s="43" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1339,61 +1376,61 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
+      <c r="A6" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
     </row>
     <row r="7" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="F7" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
+      <c r="A7" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="F7" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +1465,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1436,162 +1473,162 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1606,10 +1643,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M16" sqref="A16:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1619,51 +1656,51 @@
     <col min="3" max="3" width="38.28515625" customWidth="1"/>
     <col min="4" max="4" width="55.85546875" customWidth="1"/>
     <col min="5" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="11" width="9.140625" customWidth="1"/>
+    <col min="8" max="11" width="11.28515625" customWidth="1"/>
     <col min="12" max="12" width="16.85546875" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="46" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-    </row>
-    <row r="3" spans="1:13" s="46" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="43" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+    </row>
+    <row r="3" spans="1:13" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="44" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
     </row>
     <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
@@ -1682,48 +1719,48 @@
     </row>
     <row r="5" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="D5" s="20" t="s">
         <v>71</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>73</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="K5" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="L5" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="M5" s="21" t="s">
         <v>78</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>8</v>
@@ -1732,7 +1769,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>10</v>
@@ -1759,12 +1796,12 @@
         <v>12</v>
       </c>
       <c r="M6" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>33</v>
@@ -1797,15 +1834,15 @@
         <v>14</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>38</v>
@@ -1838,7 +1875,7 @@
         <v>15</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M8" s="25" t="s">
         <v>42</v>
@@ -1846,7 +1883,7 @@
     </row>
     <row r="9" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>28</v>
@@ -1855,7 +1892,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>30</v>
@@ -1879,15 +1916,15 @@
         <v>15</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M9" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>44</v>
@@ -1920,15 +1957,15 @@
         <v>14</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>49</v>
@@ -1937,7 +1974,7 @@
         <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>51</v>
@@ -1961,15 +1998,15 @@
         <v>15</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>53</v>
@@ -1978,7 +2015,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>15</v>
@@ -2005,12 +2042,12 @@
         <v>17</v>
       </c>
       <c r="M12" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
@@ -2019,7 +2056,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>15</v>
@@ -2046,12 +2083,12 @@
         <v>17</v>
       </c>
       <c r="M13" s="23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -2087,12 +2124,12 @@
         <v>23</v>
       </c>
       <c r="M14" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>56</v>
@@ -2100,8 +2137,8 @@
       <c r="C15" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>109</v>
+      <c r="D15" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>47</v>
@@ -2125,115 +2162,115 @@
         <v>15</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="47" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="50">
+        <v>6</v>
+      </c>
+      <c r="J16" s="50">
+        <v>9</v>
+      </c>
+      <c r="K16" s="50">
+        <v>15</v>
+      </c>
+      <c r="L16" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H17" s="5">
         <v>1</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I17" s="5">
         <v>7</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J17" s="5">
         <v>0</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K17" s="5">
         <v>7</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="23" t="s">
+      <c r="M17" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
+    <row r="18" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="I17" s="9">
-        <v>14</v>
-      </c>
-      <c r="J17" s="9">
-        <v>1</v>
-      </c>
-      <c r="K17" s="9">
-        <v>15</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="F18" s="11" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H18" s="9">
         <v>0.5</v>
@@ -2248,33 +2285,33 @@
         <v>15</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="M18" s="43" t="s">
-        <v>118</v>
+        <v>110</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>21</v>
+        <v>64</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="H19" s="9">
         <v>0.5</v>
@@ -2289,53 +2326,96 @@
         <v>15</v>
       </c>
       <c r="L19" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19" s="41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="9">
+        <v>14</v>
+      </c>
+      <c r="J20" s="9">
+        <v>1</v>
+      </c>
+      <c r="K20" s="9">
+        <v>15</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="29" t="s">
+      <c r="M20" s="41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C21" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="31" t="s">
+      <c r="D21" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F21" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G21" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H21" s="30">
         <v>0.5</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I21" s="30">
         <v>14</v>
       </c>
-      <c r="J20" s="32">
+      <c r="J21" s="30">
         <v>1</v>
       </c>
-      <c r="K20" s="32">
+      <c r="K21" s="30">
         <v>15</v>
       </c>
-      <c r="L20" s="29" t="s">
+      <c r="L21" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="33" t="s">
-        <v>123</v>
-      </c>
-    </row>
+      <c r="M21" s="31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:13" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:M2"/>
@@ -2352,16 +2432,17 @@
     <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
     <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
     <hyperlink ref="C15" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="C19" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="C20" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="C17" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="C18" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="C19" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="C20" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="C21" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
     <hyperlink ref="D3" r:id="rId17" xr:uid="{785E490E-B5EA-406E-9D8E-9A95EB5DBF04}"/>
+    <hyperlink ref="C16" r:id="rId18" xr:uid="{7A472609-3DAA-4BD5-9413-19426FB4E28D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="51" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId18"/>
+  <pageSetup paperSize="9" scale="51" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -2376,262 +2457,262 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="34" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" style="34" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" width="18.7109375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" style="32" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="B9" s="36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="38" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="36" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B25" s="36" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
+      <c r="B30" s="36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="B17" s="38" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
+      <c r="B31" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="38" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="35" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
+      <c r="B32" s="36" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B33" s="39" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
